--- a/data/trans_bre/P15-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.561962879018509</v>
+        <v>-9.357252816139006</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.218643914542778</v>
+        <v>-9.742142047846711</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.684270329534653</v>
+        <v>-9.633877847971219</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.437585672436</v>
+        <v>-4.026672029844525</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7439000695939216</v>
+        <v>-0.7294791553542388</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6196804117085425</v>
+        <v>-0.635580250618587</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7460032848985005</v>
+        <v>-0.7417782063489283</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5867329774891861</v>
+        <v>-0.5444553061093169</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.715215060062552</v>
+        <v>-2.561513598295514</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.312561762510558</v>
+        <v>-1.605434417839519</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.441335908068154</v>
+        <v>-2.364751413038498</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.737596979401697</v>
+        <v>5.868205484525365</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.3033358096047754</v>
+        <v>-0.265907226173648</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1285854162922081</v>
+        <v>-0.1466196831486928</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.2635983210202707</v>
+        <v>-0.2669012752948067</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.553973341010208</v>
+        <v>2.124753717248625</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.04687844261438</v>
+        <v>-5.945112001893717</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.646686819127796</v>
+        <v>-8.770718122102995</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.47406066550857</v>
+        <v>-7.529998544511458</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.073886930731888</v>
+        <v>-8.471966215080021</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5729009516508827</v>
+        <v>-0.5801442923830321</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6348638974166058</v>
+        <v>-0.6368171029324576</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7222560610512037</v>
+        <v>-0.719048616424237</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7873133307332197</v>
+        <v>-0.7854313373744459</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.3585885612431557</v>
+        <v>-0.1597939706750542</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-2.227854961345876</v>
+        <v>-2.232554519575412</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-1.896489977207803</v>
+        <v>-1.77539953098591</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.7588556351482147</v>
+        <v>-0.4522095546615462</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.03167671276669196</v>
+        <v>-0.010862877433076</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2089166498975544</v>
+        <v>-0.2242198668623376</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2674649319063411</v>
+        <v>-0.2265732764911015</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1042389090474584</v>
+        <v>-0.03935268847307007</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.571924544835275</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.311935193719022</v>
+        <v>-1.311935193719021</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.59327479527571</v>
@@ -849,7 +849,7 @@
         <v>-0.2933158942079274</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2112904418688666</v>
+        <v>-0.2112904418688665</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.90624672849876</v>
+        <v>-6.89089723079028</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.914937477407388</v>
+        <v>-7.014066393738711</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.082753224881825</v>
+        <v>-3.756557664665482</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.718431099383555</v>
+        <v>-3.808175724502898</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7737447723367907</v>
+        <v>-0.7840250239074055</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6878334622300122</v>
+        <v>-0.6862478632051171</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.588885076282209</v>
+        <v>-0.5794521250912923</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4859188749451382</v>
+        <v>-0.4923533467687241</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.115539273795005</v>
+        <v>-1.97006215831413</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.565049456500964</v>
+        <v>-1.673004037514815</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6885024205789702</v>
+        <v>1.013026193626416</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.169897337765099</v>
+        <v>1.095730556472273</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.3295308385956311</v>
+        <v>-0.327395792979961</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.2253136835388161</v>
+        <v>-0.2336434179238895</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2407540207338139</v>
+        <v>0.2565950864943854</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2521697828754264</v>
+        <v>0.2410205260921052</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.957706741434253</v>
+        <v>-7.17040710228268</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.037351259417415</v>
+        <v>-3.030038529739505</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.220276426982545</v>
+        <v>-2.939020328323307</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.143654546891222</v>
+        <v>-6.262917891342695</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7283301058938634</v>
+        <v>-0.7134476819226235</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4192641019015202</v>
+        <v>-0.4146675908974328</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5461217982138613</v>
+        <v>-0.5289832255964387</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6264895184186913</v>
+        <v>-0.6143870126526448</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.8918369765966278</v>
+        <v>-0.9826551848294469</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.53197730307294</v>
+        <v>2.60242362575103</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.485751860192105</v>
+        <v>1.725106831583568</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-1.064791515084029</v>
+        <v>-1.369418151946921</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.140780805662688</v>
+        <v>-0.1324349576838036</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5175636949817387</v>
+        <v>0.5474058144468232</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4715121422148276</v>
+        <v>0.5860949949424049</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1523381003834467</v>
+        <v>-0.2064073250004791</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>3.182989616907103</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.122287793873271</v>
+        <v>1.12228779387327</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.0952066987328696</v>
@@ -1049,7 +1049,7 @@
         <v>1.087405355639595</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2171251580776606</v>
+        <v>0.2171251580776604</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.415352275784211</v>
+        <v>-3.428898214201971</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.246007047050972</v>
+        <v>2.984891954877023</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2843471132825272</v>
+        <v>0.394462711630693</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.123360265330935</v>
+        <v>-1.178773138741821</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.541403987813361</v>
+        <v>-0.5303896054017472</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6093018192092584</v>
+        <v>0.5625947677831198</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.007148380324256844</v>
+        <v>0.0694191323174162</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1715821867575144</v>
+        <v>-0.1778445805708204</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.522921393481649</v>
+        <v>2.53875296869456</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.619874188794487</v>
+        <v>9.617617235343179</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.172060762535764</v>
+        <v>6.083560864236619</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.390383616916918</v>
+        <v>3.378147242112538</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7887910190217662</v>
+        <v>0.8244108946933307</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4.859692901203355</v>
+        <v>4.62538228639755</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.124694861445128</v>
+        <v>3.443847612943502</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8815537174200596</v>
+        <v>0.8663372157711456</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>4.486715567582388</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.789583259036231</v>
+        <v>3.789583259036229</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.031038458144378</v>
@@ -1149,7 +1149,7 @@
         <v>1.372159265546895</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.8505732065559695</v>
+        <v>0.8505732065559691</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4788237808938992</v>
+        <v>0.5923336917355134</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.396108004642976</v>
+        <v>-2.347781773185718</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.24701711984277</v>
+        <v>1.51043319272052</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.383857657249124</v>
+        <v>0.9291295724605988</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05874729976503293</v>
+        <v>0.01306291011760658</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3296813672659797</v>
+        <v>-0.3307341385013971</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1468840743546851</v>
+        <v>0.2353383997529709</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1999830310694485</v>
+        <v>0.1624206816888142</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.927037191360428</v>
+        <v>7.543407673023578</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.1952847205494</v>
+        <v>5.233301618027546</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.869820914602172</v>
+        <v>8.362138567613902</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.361138288800626</v>
+        <v>6.153542249929732</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.016730215029374</v>
+        <v>3.438330424798445</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.381730998833776</v>
+        <v>1.428901423256567</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.06012856704152</v>
+        <v>3.720742270958045</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.96068119459162</v>
+        <v>1.845877405313898</v>
       </c>
     </row>
     <row r="22">
@@ -1249,7 +1249,7 @@
         <v>0.7474380857291218</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.6436937024675002</v>
+        <v>0.6436937024675004</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.59966254448107</v>
+        <v>1.648749907744275</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2223316982715985</v>
+        <v>-0.4019192698500166</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.07257917219883039</v>
+        <v>-0.1289408278020518</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.543099345585543</v>
+        <v>1.30181428531348</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1285822117678582</v>
+        <v>0.1884723774477083</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.03425852859014086</v>
+        <v>-0.06722616980965082</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.03790146077190764</v>
+        <v>-0.03083455664374493</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1581232613854419</v>
+        <v>0.122128345523297</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.77367647015731</v>
+        <v>10.4774765828995</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.42677903929449</v>
+        <v>10.26883808334143</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.427101498918113</v>
+        <v>9.227989188095739</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.787857143825562</v>
+        <v>7.897912880594212</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>5.071651922803206</v>
+        <v>4.486455785353471</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.675730199539867</v>
+        <v>1.58023107922321</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.959099514840784</v>
+        <v>2.314478287494265</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.367002482668305</v>
+        <v>1.391266550798466</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>-0.08161293998765559</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.006466767922846579</v>
+        <v>-0.006466767922846578</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-3.401829569457589</v>
+        <v>-3.408739370484315</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.388030492821386</v>
+        <v>-2.366108461746852</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.620871249554251</v>
+        <v>-1.600865569357774</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.172578505887255</v>
+        <v>-1.153670352915411</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4236874521987778</v>
+        <v>-0.4151805963247248</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2609941996303508</v>
+        <v>-0.2617878736390027</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2515967324776853</v>
+        <v>-0.2443363983428543</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1682838441668494</v>
+        <v>-0.1661392007719966</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-1.014053507580381</v>
+        <v>-1.039470510501139</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2296358240785124</v>
+        <v>0.1194705931165803</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5914915168742486</v>
+        <v>0.5942474852852452</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.15026668021478</v>
+        <v>1.155785208528297</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1520796947008405</v>
+        <v>-0.1446612666586596</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03151900976318029</v>
+        <v>0.0162458223448844</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1155260498011632</v>
+        <v>0.1115749313745528</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2054436855153622</v>
+        <v>0.2186020983046863</v>
       </c>
     </row>
     <row r="28">
